--- a/Time.xlsx
+++ b/Time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -112,6 +112,84 @@
   </si>
   <si>
     <t>Итого за неделю:</t>
+  </si>
+  <si>
+    <t>Адаптация: top-line, header, first-screen,</t>
+  </si>
+  <si>
+    <t>Приступил  19:00/21:00</t>
+  </si>
+  <si>
+    <t>Приступил  8:30/15:30</t>
+  </si>
+  <si>
+    <t>new-collection, new-season, collection.</t>
+  </si>
+  <si>
+    <t>Адаптация: new-goods, our-brands,</t>
+  </si>
+  <si>
+    <t>footer, last-line.</t>
+  </si>
+  <si>
+    <t>Приступил  9:00/14:00, 15:30/18:00</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Приступил  10:00/14:00</t>
+  </si>
+  <si>
+    <t>Адаптация: проверка и правка всего контента</t>
+  </si>
+  <si>
+    <t>Приступил  16:00/19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучение: Видео и паралельное применение </t>
+  </si>
+  <si>
+    <t>на практике.</t>
+  </si>
+  <si>
+    <t>Приступил  19:00/22:00</t>
+  </si>
+  <si>
+    <t>Приступил  11:00/12:30, 14:00/16:00,</t>
+  </si>
+  <si>
+    <t>17:30/20:30.</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Адаптация под Моб всего контента.</t>
+  </si>
+  <si>
+    <t>Изучение резиновых версток.</t>
+  </si>
+  <si>
+    <t>Изучение адаптации под моб. Устройства.</t>
+  </si>
+  <si>
+    <t>Приступил  7:00/12:00, 15:00/16:30</t>
+  </si>
+  <si>
+    <t>Приступил  8:30/11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post no bills jaffna (live-server видит шрифт, </t>
+  </si>
+  <si>
+    <t>на github не видит шрифт)</t>
+  </si>
+  <si>
+    <t>не решено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучение: Видео и паралельное применение на практике. </t>
   </si>
 </sst>
 </file>
@@ -155,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -313,15 +391,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,13 +547,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,6 +559,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,373 +930,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
         <v>2.5</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="15" t="s">
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
         <v>4.5</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11">
         <v>1.5</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="25" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
         <v>1.5</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="15" t="s">
+      <c r="F8" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20">
         <v>3.5</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
         <v>4.5</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
         <v>4.5</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="38" t="s">
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
         <f>SUM(E4:E12)</f>
         <v>25.5</v>
       </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="26">
+        <v>3</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="41">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5">
+        <f>SUM(E18:E34)</f>
+        <v>42</v>
+      </c>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>№</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">Обучение: Видео и паралельное применение на практике. </t>
+  </si>
+  <si>
+    <t>Приступил  12:00/13:00</t>
   </si>
 </sst>
 </file>
@@ -560,33 +563,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -605,9 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -623,11 +602,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,14 +948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -996,7 +999,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1016,7 +1019,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1034,7 +1037,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1054,7 +1057,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -1072,7 +1075,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
@@ -1173,14 +1176,14 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1224,7 +1227,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1244,7 +1247,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="24" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1257,7 @@
       <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="5"/>
@@ -1262,7 +1265,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1282,7 +1285,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -1292,16 +1295,16 @@
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="47" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="4">
@@ -1312,32 +1315,32 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="26">
         <v>3</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
@@ -1352,7 +1355,7 @@
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="36">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1360,36 +1363,36 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="7">
         <v>6.5</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="49"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -1412,63 +1415,63 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="7">
         <v>2.5</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="50"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="50"/>
+      <c r="B33" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -1476,9 +1479,9 @@
       </c>
       <c r="E35" s="5">
         <f>SUM(E18:E34)</f>
-        <v>42</v>
-      </c>
-      <c r="F35" s="50"/>
+        <v>43</v>
+      </c>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1498,16 +1501,16 @@
     <row r="44" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
   <si>
     <t>№</t>
   </si>
@@ -193,6 +193,51 @@
   </si>
   <si>
     <t>Приступил  12:00/13:00</t>
+  </si>
+  <si>
+    <t>25.08.2022 - 01.09.2022</t>
+  </si>
+  <si>
+    <t>1.09.2022 - 8.09.2022</t>
+  </si>
+  <si>
+    <t>Приступил  19:00/20:30</t>
+  </si>
+  <si>
+    <t>Flex - видео уроки для закрепления.</t>
+  </si>
+  <si>
+    <t>Swiper - Slider изучение и применение.</t>
+  </si>
+  <si>
+    <t>Приступил  9:00/13:00, 14:00/21:00</t>
+  </si>
+  <si>
+    <t>Приступил  8:30/16:00, 17:30/20:00</t>
+  </si>
+  <si>
+    <t>Menu Burger изучение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Burger применение на странице. </t>
+  </si>
+  <si>
+    <t>Приступил  10:00/12:30, 13:00/19:30.</t>
+  </si>
+  <si>
+    <t>Приступил  8:00/12:00, 17:00/22:00</t>
+  </si>
+  <si>
+    <t>Swiper - Slider. Проблема с пагинацией,  стрелки</t>
+  </si>
+  <si>
+    <t>не меняют цвет, не работает slidesPerColumn.</t>
+  </si>
+  <si>
+    <t>Приступил  10:00/11:00</t>
+  </si>
+  <si>
+    <t>Swiper - Slider повторное изучение и применение.</t>
   </si>
 </sst>
 </file>
@@ -460,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,13 +647,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,12 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,29 +981,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,7 +1047,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1019,7 +1067,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1085,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1057,7 +1105,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1123,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
@@ -1176,14 +1224,14 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,7 +1275,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1247,7 +1295,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="24" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1305,7 @@
       <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="5"/>
@@ -1265,7 +1313,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1285,7 +1333,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -1295,7 +1343,7 @@
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="57" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -1315,7 +1363,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="44" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1381,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="41" t="s">
         <v>44</v>
       </c>
@@ -1363,7 +1411,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -1383,7 +1431,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="41" t="s">
         <v>44</v>
       </c>
@@ -1415,7 +1463,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -1435,7 +1483,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="41" t="s">
         <v>55</v>
       </c>
@@ -1445,8 +1493,8 @@
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -1461,8 +1509,8 @@
       <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="14"/>
       <c r="D34" s="42"/>
       <c r="E34" s="5"/>
@@ -1491,26 +1539,231 @@
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7">
+        <v>11</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="11">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="7">
+        <v>9</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5">
+        <v>9</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
+      <c r="B50" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5">
+        <f>SUM(E40:E50)</f>
+        <v>39.5</v>
+      </c>
+      <c r="F51" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
